--- a/data/SCENARIOS.xlsx
+++ b/data/SCENARIOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbisschoff\Desktop\Playground\Z-model\data\fLite-validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geyerbisschoff\PythonProjects\Z-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EE41FC-87A3-4C24-A276-AF69E8392871}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-40212" yWindow="-6528" windowWidth="40320" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="4" r:id="rId1"/>
@@ -24,17 +25,26 @@
     <definedName name="_QUATER">CONSTANTS!$B$2:$B$5</definedName>
     <definedName name="Date_Reporting">[1]Inputs!$D$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="28">
   <si>
     <t>SCENARIO</t>
   </si>
@@ -116,11 +126,14 @@
   <si>
     <t>Z-Non-Cyclical</t>
   </si>
+  <si>
+    <t>INDEX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +255,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4708,7 +4721,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5045,11 +5064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F580"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G580"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,7 +5079,7 @@
     <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5079,8 +5098,11 @@
       <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -5100,8 +5122,11 @@
         <f>0.9*E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -5122,8 +5147,11 @@
         <f t="shared" ref="F3:F66" si="0">0.9*E3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -5144,8 +5172,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -5166,8 +5197,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -5188,8 +5222,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -5210,8 +5247,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -5232,8 +5272,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -5254,8 +5297,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -5276,8 +5322,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -5298,8 +5347,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
@@ -5320,8 +5372,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -5342,8 +5397,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -5364,8 +5422,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -5386,8 +5447,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -5408,8 +5472,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
@@ -5430,8 +5497,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -5452,8 +5522,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -5474,8 +5547,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -5496,8 +5572,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
@@ -5518,8 +5597,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -5540,8 +5622,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -5562,8 +5647,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -5584,8 +5672,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5606,8 +5697,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -5628,8 +5722,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5650,8 +5747,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -5672,8 +5772,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
@@ -5694,8 +5797,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -5716,8 +5822,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
@@ -5738,8 +5847,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
@@ -5760,8 +5872,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -5782,8 +5897,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
@@ -5804,8 +5922,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
@@ -5826,8 +5947,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
@@ -5848,8 +5972,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -5870,8 +5997,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -5892,8 +6022,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -5914,8 +6047,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
@@ -5936,8 +6072,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -5958,8 +6097,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -5980,8 +6122,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -6002,8 +6147,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>21</v>
       </c>
@@ -6024,8 +6172,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>21</v>
       </c>
@@ -6046,8 +6197,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>21</v>
       </c>
@@ -6068,8 +6222,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
@@ -6090,8 +6247,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
@@ -6112,8 +6272,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
@@ -6134,8 +6297,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>21</v>
       </c>
@@ -6156,8 +6322,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>21</v>
       </c>
@@ -6178,8 +6347,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>21</v>
       </c>
@@ -6200,8 +6372,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>21</v>
       </c>
@@ -6222,8 +6397,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>21</v>
       </c>
@@ -6244,8 +6422,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>21</v>
       </c>
@@ -6266,8 +6447,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>21</v>
       </c>
@@ -6288,8 +6472,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>21</v>
       </c>
@@ -6310,8 +6497,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>21</v>
       </c>
@@ -6332,8 +6522,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>21</v>
       </c>
@@ -6354,8 +6547,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>21</v>
       </c>
@@ -6376,8 +6572,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -6398,8 +6597,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>21</v>
       </c>
@@ -6420,8 +6622,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>21</v>
       </c>
@@ -6442,8 +6647,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>21</v>
       </c>
@@ -6464,8 +6672,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>21</v>
       </c>
@@ -6486,8 +6697,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>21</v>
       </c>
@@ -6508,8 +6722,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>21</v>
       </c>
@@ -6530,8 +6747,11 @@
         <f t="shared" ref="F67:F130" si="2">0.9*E67</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -6552,8 +6772,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>21</v>
       </c>
@@ -6574,8 +6797,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>21</v>
       </c>
@@ -6596,8 +6822,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>21</v>
       </c>
@@ -6618,8 +6847,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>21</v>
       </c>
@@ -6640,8 +6872,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
@@ -6662,8 +6897,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>21</v>
       </c>
@@ -6684,8 +6922,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>21</v>
       </c>
@@ -6706,8 +6947,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>21</v>
       </c>
@@ -6728,8 +6972,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>21</v>
       </c>
@@ -6750,8 +6997,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>21</v>
       </c>
@@ -6772,8 +7022,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>21</v>
       </c>
@@ -6794,8 +7047,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>21</v>
       </c>
@@ -6816,8 +7072,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>21</v>
       </c>
@@ -6838,8 +7097,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
@@ -6860,8 +7122,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>21</v>
       </c>
@@ -6882,8 +7147,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>21</v>
       </c>
@@ -6904,8 +7172,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>21</v>
       </c>
@@ -6926,8 +7197,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>21</v>
       </c>
@@ -6948,8 +7222,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>21</v>
       </c>
@@ -6970,8 +7247,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>21</v>
       </c>
@@ -6992,8 +7272,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>21</v>
       </c>
@@ -7014,8 +7297,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>21</v>
       </c>
@@ -7036,8 +7322,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>21</v>
       </c>
@@ -7058,8 +7347,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>21</v>
       </c>
@@ -7080,8 +7372,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>21</v>
       </c>
@@ -7102,8 +7397,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>21</v>
       </c>
@@ -7124,8 +7422,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>21</v>
       </c>
@@ -7146,8 +7447,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>21</v>
       </c>
@@ -7168,8 +7472,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>21</v>
       </c>
@@ -7190,8 +7497,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>21</v>
       </c>
@@ -7212,8 +7522,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>21</v>
       </c>
@@ -7234,8 +7547,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>21</v>
       </c>
@@ -7256,8 +7572,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>21</v>
       </c>
@@ -7278,8 +7597,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>21</v>
       </c>
@@ -7300,8 +7622,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>21</v>
       </c>
@@ -7322,8 +7647,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>21</v>
       </c>
@@ -7344,8 +7672,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>21</v>
       </c>
@@ -7366,8 +7697,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>21</v>
       </c>
@@ -7388,8 +7722,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>21</v>
       </c>
@@ -7410,8 +7747,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>21</v>
       </c>
@@ -7432,8 +7772,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>21</v>
       </c>
@@ -7454,8 +7797,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
@@ -7476,8 +7822,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>21</v>
       </c>
@@ -7498,8 +7847,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>21</v>
       </c>
@@ -7520,8 +7872,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>21</v>
       </c>
@@ -7542,8 +7897,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>21</v>
       </c>
@@ -7564,8 +7922,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>21</v>
       </c>
@@ -7586,8 +7947,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>21</v>
       </c>
@@ -7608,8 +7972,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
@@ -7630,8 +7997,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>21</v>
       </c>
@@ -7652,8 +8022,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>21</v>
       </c>
@@ -7674,8 +8047,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>21</v>
       </c>
@@ -7696,8 +8072,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>21</v>
       </c>
@@ -7718,8 +8097,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>21</v>
       </c>
@@ -7740,8 +8122,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>21</v>
       </c>
@@ -7762,8 +8147,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>21</v>
       </c>
@@ -7784,8 +8172,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>21</v>
       </c>
@@ -7806,8 +8197,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>21</v>
       </c>
@@ -7828,8 +8222,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>21</v>
       </c>
@@ -7850,8 +8247,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>21</v>
       </c>
@@ -7872,8 +8272,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>21</v>
       </c>
@@ -7894,8 +8297,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>21</v>
       </c>
@@ -7916,8 +8322,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>21</v>
       </c>
@@ -7938,8 +8347,11 @@
         <f t="shared" ref="F131:F194" si="4">0.9*E131</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>21</v>
       </c>
@@ -7960,8 +8372,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>21</v>
       </c>
@@ -7982,8 +8397,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>21</v>
       </c>
@@ -8004,8 +8422,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>21</v>
       </c>
@@ -8026,8 +8447,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>21</v>
       </c>
@@ -8048,8 +8472,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>21</v>
       </c>
@@ -8070,8 +8497,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>21</v>
       </c>
@@ -8092,8 +8522,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>21</v>
       </c>
@@ -8114,8 +8547,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>21</v>
       </c>
@@ -8136,8 +8572,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>21</v>
       </c>
@@ -8158,8 +8597,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>21</v>
       </c>
@@ -8180,8 +8622,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>21</v>
       </c>
@@ -8202,8 +8647,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>21</v>
       </c>
@@ -8224,8 +8672,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>21</v>
       </c>
@@ -8246,8 +8697,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>21</v>
       </c>
@@ -8268,8 +8722,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>21</v>
       </c>
@@ -8290,8 +8747,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>21</v>
       </c>
@@ -8312,8 +8772,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>21</v>
       </c>
@@ -8334,8 +8797,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>21</v>
       </c>
@@ -8356,8 +8822,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>21</v>
       </c>
@@ -8378,8 +8847,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>21</v>
       </c>
@@ -8400,8 +8872,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>21</v>
       </c>
@@ -8422,8 +8897,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>21</v>
       </c>
@@ -8444,8 +8922,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>21</v>
       </c>
@@ -8466,8 +8947,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>21</v>
       </c>
@@ -8488,8 +8972,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>21</v>
       </c>
@@ -8510,8 +8997,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>21</v>
       </c>
@@ -8532,8 +9022,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>21</v>
       </c>
@@ -8554,8 +9047,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>21</v>
       </c>
@@ -8576,8 +9072,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>21</v>
       </c>
@@ -8598,8 +9097,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>21</v>
       </c>
@@ -8620,8 +9122,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>21</v>
       </c>
@@ -8642,8 +9147,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>21</v>
       </c>
@@ -8664,8 +9172,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>21</v>
       </c>
@@ -8686,8 +9197,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>21</v>
       </c>
@@ -8708,8 +9222,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>21</v>
       </c>
@@ -8730,8 +9247,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>21</v>
       </c>
@@ -8752,8 +9272,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>21</v>
       </c>
@@ -8774,8 +9297,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>21</v>
       </c>
@@ -8796,8 +9322,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>21</v>
       </c>
@@ -8818,8 +9347,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>21</v>
       </c>
@@ -8840,8 +9372,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
@@ -8862,8 +9397,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>21</v>
       </c>
@@ -8884,8 +9422,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>21</v>
       </c>
@@ -8906,8 +9447,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>21</v>
       </c>
@@ -8928,8 +9472,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>21</v>
       </c>
@@ -8950,8 +9497,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>21</v>
       </c>
@@ -8972,8 +9522,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>21</v>
       </c>
@@ -8994,8 +9547,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>21</v>
       </c>
@@ -9016,8 +9572,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>21</v>
       </c>
@@ -9038,8 +9597,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>21</v>
       </c>
@@ -9060,8 +9622,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>21</v>
       </c>
@@ -9082,8 +9647,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>21</v>
       </c>
@@ -9104,8 +9672,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>21</v>
       </c>
@@ -9126,8 +9697,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>21</v>
       </c>
@@ -9148,8 +9722,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>21</v>
       </c>
@@ -9170,8 +9747,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>21</v>
       </c>
@@ -9192,8 +9772,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>21</v>
       </c>
@@ -9214,8 +9797,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>21</v>
       </c>
@@ -9236,8 +9822,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>21</v>
       </c>
@@ -9258,8 +9847,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>21</v>
       </c>
@@ -9280,8 +9872,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>21</v>
       </c>
@@ -9302,8 +9897,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>21</v>
       </c>
@@ -9324,8 +9922,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>23</v>
       </c>
@@ -9345,8 +9946,11 @@
         <f t="shared" ref="F195:F258" si="6">0.9*E195</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>23</v>
       </c>
@@ -9368,8 +9972,11 @@
         <f t="shared" si="6"/>
         <v>-4.5000000000000005E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>23</v>
       </c>
@@ -9391,8 +9998,11 @@
         <f t="shared" si="6"/>
         <v>-9.0000000000000011E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>23</v>
       </c>
@@ -9414,8 +10024,11 @@
         <f t="shared" si="6"/>
         <v>-0.14400000000000002</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>23</v>
       </c>
@@ -9437,8 +10050,11 @@
         <f t="shared" si="6"/>
         <v>-0.189</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>23</v>
       </c>
@@ -9460,8 +10076,11 @@
         <f t="shared" si="6"/>
         <v>-0.23400000000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>23</v>
       </c>
@@ -9483,8 +10102,11 @@
         <f t="shared" si="6"/>
         <v>-0.27900000000000003</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>23</v>
       </c>
@@ -9506,8 +10128,11 @@
         <f t="shared" si="6"/>
         <v>-0.32400000000000001</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>23</v>
       </c>
@@ -9529,8 +10154,11 @@
         <f t="shared" si="6"/>
         <v>-0.36899999999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>23</v>
       </c>
@@ -9552,8 +10180,11 @@
         <f t="shared" si="6"/>
         <v>-0.40500000000000003</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>23</v>
       </c>
@@ -9575,8 +10206,11 @@
         <f t="shared" si="6"/>
         <v>-0.45</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>23</v>
       </c>
@@ -9598,8 +10232,11 @@
         <f t="shared" si="6"/>
         <v>-0.49500000000000005</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>23</v>
       </c>
@@ -9621,8 +10258,11 @@
         <f t="shared" si="6"/>
         <v>-0.53100000000000003</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>23</v>
       </c>
@@ -9644,8 +10284,11 @@
         <f t="shared" si="6"/>
         <v>-0.56700000000000006</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>23</v>
       </c>
@@ -9667,8 +10310,11 @@
         <f t="shared" si="6"/>
         <v>-0.60300000000000009</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>23</v>
       </c>
@@ -9690,8 +10336,11 @@
         <f t="shared" si="6"/>
         <v>-0.63900000000000001</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>23</v>
       </c>
@@ -9713,8 +10362,11 @@
         <f t="shared" si="6"/>
         <v>-0.66600000000000004</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>23</v>
       </c>
@@ -9736,8 +10388,11 @@
         <f t="shared" si="6"/>
         <v>-0.70200000000000007</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>23</v>
       </c>
@@ -9759,8 +10414,11 @@
         <f t="shared" si="6"/>
         <v>-0.72900000000000009</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>23</v>
       </c>
@@ -9782,8 +10440,11 @@
         <f t="shared" si="6"/>
         <v>-0.75600000000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>23</v>
       </c>
@@ -9805,8 +10466,11 @@
         <f t="shared" si="6"/>
         <v>-0.78300000000000003</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>23</v>
       </c>
@@ -9828,8 +10492,11 @@
         <f t="shared" si="6"/>
         <v>-0.80100000000000005</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>23</v>
       </c>
@@ -9851,8 +10518,11 @@
         <f t="shared" si="6"/>
         <v>-0.81900000000000006</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>23</v>
       </c>
@@ -9874,8 +10544,11 @@
         <f t="shared" si="6"/>
         <v>-0.83700000000000008</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>23</v>
       </c>
@@ -9897,8 +10570,11 @@
         <f t="shared" si="6"/>
         <v>-0.85499999999999998</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>23</v>
       </c>
@@ -9920,8 +10596,11 @@
         <f t="shared" si="6"/>
         <v>-0.873</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>23</v>
       </c>
@@ -9943,8 +10622,11 @@
         <f t="shared" si="6"/>
         <v>-0.88200000000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>23</v>
       </c>
@@ -9966,8 +10648,11 @@
         <f t="shared" si="6"/>
         <v>-0.89100000000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>23</v>
       </c>
@@ -9989,8 +10674,11 @@
         <f t="shared" si="6"/>
         <v>-0.89100000000000001</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>23</v>
       </c>
@@ -10012,8 +10700,11 @@
         <f t="shared" si="6"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>23</v>
       </c>
@@ -10035,8 +10726,11 @@
         <f t="shared" si="6"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>23</v>
       </c>
@@ -10058,8 +10752,11 @@
         <f t="shared" si="6"/>
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>23</v>
       </c>
@@ -10081,8 +10778,11 @@
         <f t="shared" si="6"/>
         <v>-0.89100000000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>23</v>
       </c>
@@ -10104,8 +10804,11 @@
         <f t="shared" si="6"/>
         <v>-0.89100000000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>23</v>
       </c>
@@ -10127,8 +10830,11 @@
         <f t="shared" si="6"/>
         <v>-0.88200000000000001</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>23</v>
       </c>
@@ -10150,8 +10856,11 @@
         <f t="shared" si="6"/>
         <v>-0.873</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>23</v>
       </c>
@@ -10173,8 +10882,11 @@
         <f t="shared" si="6"/>
         <v>-0.85499999999999998</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>23</v>
       </c>
@@ -10196,8 +10908,11 @@
         <f t="shared" si="6"/>
         <v>-0.83700000000000008</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>23</v>
       </c>
@@ -10219,8 +10934,11 @@
         <f t="shared" si="6"/>
         <v>-0.81900000000000006</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>23</v>
       </c>
@@ -10242,8 +10960,11 @@
         <f t="shared" si="6"/>
         <v>-0.80100000000000005</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>23</v>
       </c>
@@ -10265,8 +10986,11 @@
         <f t="shared" si="6"/>
         <v>-0.78300000000000003</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>23</v>
       </c>
@@ -10288,8 +11012,11 @@
         <f t="shared" si="6"/>
         <v>-0.75600000000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>23</v>
       </c>
@@ -10311,8 +11038,11 @@
         <f t="shared" si="6"/>
         <v>-0.72900000000000009</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>23</v>
       </c>
@@ -10334,8 +11064,11 @@
         <f t="shared" si="6"/>
         <v>-0.70200000000000007</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>23</v>
       </c>
@@ -10357,8 +11090,11 @@
         <f t="shared" si="6"/>
         <v>-0.66600000000000004</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>23</v>
       </c>
@@ -10380,8 +11116,11 @@
         <f t="shared" si="6"/>
         <v>-0.63900000000000001</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>23</v>
       </c>
@@ -10403,8 +11142,11 @@
         <f t="shared" si="6"/>
         <v>-0.60300000000000009</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>23</v>
       </c>
@@ -10426,8 +11168,11 @@
         <f t="shared" si="6"/>
         <v>-0.56700000000000006</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>23</v>
       </c>
@@ -10449,8 +11194,11 @@
         <f t="shared" si="6"/>
         <v>-0.53100000000000003</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>23</v>
       </c>
@@ -10472,8 +11220,11 @@
         <f t="shared" si="6"/>
         <v>-0.48600000000000004</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>23</v>
       </c>
@@ -10495,8 +11246,11 @@
         <f t="shared" si="6"/>
         <v>-0.45</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>23</v>
       </c>
@@ -10518,8 +11272,11 @@
         <f t="shared" si="6"/>
         <v>-0.40500000000000003</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>23</v>
       </c>
@@ -10541,8 +11298,11 @@
         <f t="shared" si="6"/>
         <v>-0.36899999999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>23</v>
       </c>
@@ -10564,8 +11324,11 @@
         <f t="shared" si="6"/>
         <v>-0.32400000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>23</v>
       </c>
@@ -10587,8 +11350,11 @@
         <f t="shared" si="6"/>
         <v>-0.27900000000000003</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>23</v>
       </c>
@@ -10610,8 +11376,11 @@
         <f t="shared" si="6"/>
         <v>-0.23400000000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>23</v>
       </c>
@@ -10633,8 +11402,11 @@
         <f t="shared" si="6"/>
         <v>-0.189</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>23</v>
       </c>
@@ -10656,8 +11428,11 @@
         <f t="shared" si="6"/>
         <v>-0.13500000000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>23</v>
       </c>
@@ -10679,8 +11454,11 @@
         <f t="shared" si="6"/>
         <v>-9.0000000000000011E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>23</v>
       </c>
@@ -10702,8 +11480,11 @@
         <f t="shared" si="6"/>
         <v>-4.5000000000000005E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>23</v>
       </c>
@@ -10725,8 +11506,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>23</v>
       </c>
@@ -10748,8 +11532,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>23</v>
       </c>
@@ -10771,8 +11558,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>23</v>
       </c>
@@ -10794,8 +11584,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>23</v>
       </c>
@@ -10817,8 +11610,11 @@
         <f t="shared" ref="F259:F322" si="10">0.9*E259</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>23</v>
       </c>
@@ -10840,8 +11636,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>23</v>
       </c>
@@ -10863,8 +11662,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>23</v>
       </c>
@@ -10886,8 +11688,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>23</v>
       </c>
@@ -10909,8 +11714,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>23</v>
       </c>
@@ -10932,8 +11740,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>23</v>
       </c>
@@ -10955,8 +11766,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>23</v>
       </c>
@@ -10978,8 +11792,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>23</v>
       </c>
@@ -11001,8 +11818,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>23</v>
       </c>
@@ -11024,8 +11844,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>23</v>
       </c>
@@ -11047,8 +11870,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>23</v>
       </c>
@@ -11070,8 +11896,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>23</v>
       </c>
@@ -11093,8 +11922,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>23</v>
       </c>
@@ -11116,8 +11948,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>23</v>
       </c>
@@ -11139,8 +11974,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>23</v>
       </c>
@@ -11162,8 +12000,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>23</v>
       </c>
@@ -11185,8 +12026,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>23</v>
       </c>
@@ -11208,8 +12052,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>23</v>
       </c>
@@ -11231,8 +12078,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>23</v>
       </c>
@@ -11254,8 +12104,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>23</v>
       </c>
@@ -11277,8 +12130,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>23</v>
       </c>
@@ -11300,8 +12156,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>23</v>
       </c>
@@ -11323,8 +12182,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>23</v>
       </c>
@@ -11346,8 +12208,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>23</v>
       </c>
@@ -11369,8 +12234,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>23</v>
       </c>
@@ -11392,8 +12260,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>23</v>
       </c>
@@ -11415,8 +12286,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>23</v>
       </c>
@@ -11438,8 +12312,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>23</v>
       </c>
@@ -11461,8 +12338,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>23</v>
       </c>
@@ -11484,8 +12364,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>23</v>
       </c>
@@ -11507,8 +12390,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>23</v>
       </c>
@@ -11530,8 +12416,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>23</v>
       </c>
@@ -11553,8 +12442,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>23</v>
       </c>
@@ -11576,8 +12468,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>23</v>
       </c>
@@ -11599,8 +12494,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>23</v>
       </c>
@@ -11622,8 +12520,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>23</v>
       </c>
@@ -11645,8 +12546,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>23</v>
       </c>
@@ -11668,8 +12572,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>23</v>
       </c>
@@ -11691,8 +12598,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>23</v>
       </c>
@@ -11714,8 +12624,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>23</v>
       </c>
@@ -11737,8 +12650,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>23</v>
       </c>
@@ -11760,8 +12676,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>23</v>
       </c>
@@ -11783,8 +12702,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>23</v>
       </c>
@@ -11806,8 +12728,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>23</v>
       </c>
@@ -11829,8 +12754,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>23</v>
       </c>
@@ -11852,8 +12780,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>23</v>
       </c>
@@ -11875,8 +12806,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>23</v>
       </c>
@@ -11898,8 +12832,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>23</v>
       </c>
@@ -11921,8 +12858,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>23</v>
       </c>
@@ -11944,8 +12884,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>23</v>
       </c>
@@ -11967,8 +12910,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>23</v>
       </c>
@@ -11990,8 +12936,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>23</v>
       </c>
@@ -12013,8 +12962,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>23</v>
       </c>
@@ -12036,8 +12988,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>23</v>
       </c>
@@ -12059,8 +13014,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>23</v>
       </c>
@@ -12082,8 +13040,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>23</v>
       </c>
@@ -12105,8 +13066,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>23</v>
       </c>
@@ -12128,8 +13092,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>23</v>
       </c>
@@ -12151,8 +13118,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>23</v>
       </c>
@@ -12174,8 +13144,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>23</v>
       </c>
@@ -12197,8 +13170,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>23</v>
       </c>
@@ -12220,8 +13196,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>23</v>
       </c>
@@ -12243,8 +13222,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>23</v>
       </c>
@@ -12266,8 +13248,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>23</v>
       </c>
@@ -12289,8 +13274,11 @@
         <f t="shared" ref="F323:F386" si="13">0.9*E323</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>23</v>
       </c>
@@ -12312,8 +13300,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>23</v>
       </c>
@@ -12335,8 +13326,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>23</v>
       </c>
@@ -12358,8 +13352,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>23</v>
       </c>
@@ -12381,8 +13378,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>23</v>
       </c>
@@ -12404,8 +13404,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>23</v>
       </c>
@@ -12427,8 +13430,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>23</v>
       </c>
@@ -12450,8 +13456,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>23</v>
       </c>
@@ -12473,8 +13482,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>23</v>
       </c>
@@ -12496,8 +13508,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>23</v>
       </c>
@@ -12519,8 +13534,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>23</v>
       </c>
@@ -12542,8 +13560,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>23</v>
       </c>
@@ -12565,8 +13586,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>23</v>
       </c>
@@ -12588,8 +13612,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>23</v>
       </c>
@@ -12611,8 +13638,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>23</v>
       </c>
@@ -12634,8 +13664,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>23</v>
       </c>
@@ -12657,8 +13690,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>23</v>
       </c>
@@ -12680,8 +13716,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>23</v>
       </c>
@@ -12703,8 +13742,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>23</v>
       </c>
@@ -12726,8 +13768,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>23</v>
       </c>
@@ -12749,8 +13794,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>23</v>
       </c>
@@ -12772,8 +13820,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>23</v>
       </c>
@@ -12795,8 +13846,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>23</v>
       </c>
@@ -12818,8 +13872,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>23</v>
       </c>
@@ -12841,8 +13898,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>23</v>
       </c>
@@ -12864,8 +13924,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>23</v>
       </c>
@@ -12887,8 +13950,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>23</v>
       </c>
@@ -12910,8 +13976,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>23</v>
       </c>
@@ -12933,8 +14002,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>23</v>
       </c>
@@ -12956,8 +14028,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>23</v>
       </c>
@@ -12979,8 +14054,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>23</v>
       </c>
@@ -13002,8 +14080,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>23</v>
       </c>
@@ -13025,8 +14106,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>23</v>
       </c>
@@ -13048,8 +14132,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>23</v>
       </c>
@@ -13071,8 +14158,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>23</v>
       </c>
@@ -13094,8 +14184,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>23</v>
       </c>
@@ -13117,8 +14210,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>23</v>
       </c>
@@ -13140,8 +14236,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>23</v>
       </c>
@@ -13163,8 +14262,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>23</v>
       </c>
@@ -13186,8 +14288,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>23</v>
       </c>
@@ -13209,8 +14314,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>23</v>
       </c>
@@ -13232,8 +14340,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>23</v>
       </c>
@@ -13255,8 +14366,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>23</v>
       </c>
@@ -13278,8 +14392,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>23</v>
       </c>
@@ -13301,8 +14418,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>23</v>
       </c>
@@ -13324,8 +14444,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>23</v>
       </c>
@@ -13347,8 +14470,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>23</v>
       </c>
@@ -13370,8 +14496,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>23</v>
       </c>
@@ -13393,8 +14522,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>23</v>
       </c>
@@ -13416,8 +14548,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>23</v>
       </c>
@@ -13439,8 +14574,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>23</v>
       </c>
@@ -13462,8 +14600,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>23</v>
       </c>
@@ -13485,8 +14626,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>23</v>
       </c>
@@ -13508,8 +14652,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>23</v>
       </c>
@@ -13531,8 +14678,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>23</v>
       </c>
@@ -13554,8 +14704,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>23</v>
       </c>
@@ -13577,8 +14730,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>23</v>
       </c>
@@ -13600,8 +14756,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>23</v>
       </c>
@@ -13623,8 +14782,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>23</v>
       </c>
@@ -13646,8 +14808,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>23</v>
       </c>
@@ -13669,8 +14834,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>23</v>
       </c>
@@ -13692,8 +14860,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>23</v>
       </c>
@@ -13715,8 +14886,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>23</v>
       </c>
@@ -13738,8 +14912,11 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>23</v>
       </c>
@@ -13761,8 +14938,11 @@
         <f t="shared" ref="F387:F450" si="16">0.9*E387</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>24</v>
       </c>
@@ -13782,8 +14962,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>24</v>
       </c>
@@ -13805,8 +14988,11 @@
         <f t="shared" si="16"/>
         <v>4.5000000000000005E-2</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>24</v>
       </c>
@@ -13828,8 +15014,11 @@
         <f t="shared" si="16"/>
         <v>9.0000000000000011E-2</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>24</v>
       </c>
@@ -13851,8 +15040,11 @@
         <f t="shared" si="16"/>
         <v>0.14400000000000002</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>24</v>
       </c>
@@ -13874,8 +15066,11 @@
         <f t="shared" si="16"/>
         <v>0.189</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>24</v>
       </c>
@@ -13897,8 +15092,11 @@
         <f t="shared" si="16"/>
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>24</v>
       </c>
@@ -13920,8 +15118,11 @@
         <f t="shared" si="16"/>
         <v>0.27900000000000003</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>24</v>
       </c>
@@ -13943,8 +15144,11 @@
         <f t="shared" si="16"/>
         <v>0.32400000000000001</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>24</v>
       </c>
@@ -13966,8 +15170,11 @@
         <f t="shared" si="16"/>
         <v>0.36899999999999999</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>24</v>
       </c>
@@ -13989,8 +15196,11 @@
         <f t="shared" si="16"/>
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>24</v>
       </c>
@@ -14012,8 +15222,11 @@
         <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>24</v>
       </c>
@@ -14035,8 +15248,11 @@
         <f t="shared" si="16"/>
         <v>0.49500000000000005</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>24</v>
       </c>
@@ -14058,8 +15274,11 @@
         <f t="shared" si="16"/>
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>24</v>
       </c>
@@ -14081,8 +15300,11 @@
         <f t="shared" si="16"/>
         <v>0.56700000000000006</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>24</v>
       </c>
@@ -14104,8 +15326,11 @@
         <f t="shared" si="16"/>
         <v>0.60300000000000009</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>24</v>
       </c>
@@ -14127,8 +15352,11 @@
         <f t="shared" si="16"/>
         <v>0.63900000000000001</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>24</v>
       </c>
@@ -14150,8 +15378,11 @@
         <f t="shared" si="16"/>
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>24</v>
       </c>
@@ -14173,8 +15404,11 @@
         <f t="shared" si="16"/>
         <v>0.70200000000000007</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>24</v>
       </c>
@@ -14196,8 +15430,11 @@
         <f t="shared" si="16"/>
         <v>0.72900000000000009</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>24</v>
       </c>
@@ -14219,8 +15456,11 @@
         <f t="shared" si="16"/>
         <v>0.75600000000000001</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>24</v>
       </c>
@@ -14242,8 +15482,11 @@
         <f t="shared" si="16"/>
         <v>0.78300000000000003</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>24</v>
       </c>
@@ -14265,8 +15508,11 @@
         <f t="shared" si="16"/>
         <v>0.80100000000000005</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>24</v>
       </c>
@@ -14288,8 +15534,11 @@
         <f t="shared" si="16"/>
         <v>0.81900000000000006</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>24</v>
       </c>
@@ -14311,8 +15560,11 @@
         <f t="shared" si="16"/>
         <v>0.83700000000000008</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>24</v>
       </c>
@@ -14334,8 +15586,11 @@
         <f t="shared" si="16"/>
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>24</v>
       </c>
@@ -14357,8 +15612,11 @@
         <f t="shared" si="16"/>
         <v>0.873</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>24</v>
       </c>
@@ -14380,8 +15638,11 @@
         <f t="shared" si="16"/>
         <v>0.88200000000000001</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>24</v>
       </c>
@@ -14403,8 +15664,11 @@
         <f t="shared" si="16"/>
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>24</v>
       </c>
@@ -14426,8 +15690,11 @@
         <f t="shared" si="16"/>
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>24</v>
       </c>
@@ -14449,8 +15716,11 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>24</v>
       </c>
@@ -14472,8 +15742,11 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>24</v>
       </c>
@@ -14495,8 +15768,11 @@
         <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>24</v>
       </c>
@@ -14518,8 +15794,11 @@
         <f t="shared" si="16"/>
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>24</v>
       </c>
@@ -14541,8 +15820,11 @@
         <f t="shared" si="16"/>
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>24</v>
       </c>
@@ -14564,8 +15846,11 @@
         <f t="shared" si="16"/>
         <v>0.88200000000000001</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>24</v>
       </c>
@@ -14587,8 +15872,11 @@
         <f t="shared" si="16"/>
         <v>0.873</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>24</v>
       </c>
@@ -14610,8 +15898,11 @@
         <f t="shared" si="16"/>
         <v>0.85499999999999998</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>24</v>
       </c>
@@ -14633,8 +15924,11 @@
         <f t="shared" si="16"/>
         <v>0.83700000000000008</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>24</v>
       </c>
@@ -14656,8 +15950,11 @@
         <f t="shared" si="16"/>
         <v>0.81900000000000006</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>24</v>
       </c>
@@ -14679,8 +15976,11 @@
         <f t="shared" si="16"/>
         <v>0.80100000000000005</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>24</v>
       </c>
@@ -14702,8 +16002,11 @@
         <f t="shared" si="16"/>
         <v>0.78300000000000003</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>24</v>
       </c>
@@ -14725,8 +16028,11 @@
         <f t="shared" si="16"/>
         <v>0.75600000000000001</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>24</v>
       </c>
@@ -14748,8 +16054,11 @@
         <f t="shared" si="16"/>
         <v>0.72900000000000009</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>24</v>
       </c>
@@ -14771,8 +16080,11 @@
         <f t="shared" si="16"/>
         <v>0.70200000000000007</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>24</v>
       </c>
@@ -14794,8 +16106,11 @@
         <f t="shared" si="16"/>
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>24</v>
       </c>
@@ -14817,8 +16132,11 @@
         <f t="shared" si="16"/>
         <v>0.63900000000000001</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>24</v>
       </c>
@@ -14840,8 +16158,11 @@
         <f t="shared" si="16"/>
         <v>0.60300000000000009</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>24</v>
       </c>
@@ -14863,8 +16184,11 @@
         <f t="shared" si="16"/>
         <v>0.56700000000000006</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>24</v>
       </c>
@@ -14886,8 +16210,11 @@
         <f t="shared" si="16"/>
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>24</v>
       </c>
@@ -14909,8 +16236,11 @@
         <f t="shared" si="16"/>
         <v>0.48600000000000004</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>24</v>
       </c>
@@ -14932,8 +16262,11 @@
         <f t="shared" si="16"/>
         <v>0.45</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>24</v>
       </c>
@@ -14955,8 +16288,11 @@
         <f t="shared" si="16"/>
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>24</v>
       </c>
@@ -14978,8 +16314,11 @@
         <f t="shared" si="16"/>
         <v>0.36899999999999999</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>24</v>
       </c>
@@ -15001,8 +16340,11 @@
         <f t="shared" si="16"/>
         <v>0.32400000000000001</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>24</v>
       </c>
@@ -15024,8 +16366,11 @@
         <f t="shared" si="16"/>
         <v>0.27900000000000003</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>24</v>
       </c>
@@ -15047,8 +16392,11 @@
         <f t="shared" si="16"/>
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>24</v>
       </c>
@@ -15070,8 +16418,11 @@
         <f t="shared" si="16"/>
         <v>0.189</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>24</v>
       </c>
@@ -15093,8 +16444,11 @@
         <f t="shared" si="16"/>
         <v>0.13500000000000001</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>24</v>
       </c>
@@ -15116,8 +16470,11 @@
         <f t="shared" si="16"/>
         <v>9.0000000000000011E-2</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>24</v>
       </c>
@@ -15139,8 +16496,11 @@
         <f t="shared" si="16"/>
         <v>4.5000000000000005E-2</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>24</v>
       </c>
@@ -15162,8 +16522,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>24</v>
       </c>
@@ -15185,8 +16548,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>24</v>
       </c>
@@ -15208,8 +16574,11 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>24</v>
       </c>
@@ -15231,8 +16600,11 @@
         <f t="shared" ref="F451:F514" si="20">0.9*E451</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>24</v>
       </c>
@@ -15254,8 +16626,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>24</v>
       </c>
@@ -15277,8 +16652,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>24</v>
       </c>
@@ -15300,8 +16678,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>24</v>
       </c>
@@ -15323,8 +16704,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>24</v>
       </c>
@@ -15346,8 +16730,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>24</v>
       </c>
@@ -15369,8 +16756,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>24</v>
       </c>
@@ -15392,8 +16782,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>24</v>
       </c>
@@ -15415,8 +16808,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>24</v>
       </c>
@@ -15438,8 +16834,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>24</v>
       </c>
@@ -15461,8 +16860,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>24</v>
       </c>
@@ -15484,8 +16886,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>24</v>
       </c>
@@ -15507,8 +16912,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>24</v>
       </c>
@@ -15530,8 +16938,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>24</v>
       </c>
@@ -15553,8 +16964,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>24</v>
       </c>
@@ -15576,8 +16990,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>24</v>
       </c>
@@ -15599,8 +17016,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>24</v>
       </c>
@@ -15622,8 +17042,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>24</v>
       </c>
@@ -15645,8 +17068,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>24</v>
       </c>
@@ -15668,8 +17094,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>24</v>
       </c>
@@ -15691,8 +17120,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>24</v>
       </c>
@@ -15714,8 +17146,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>24</v>
       </c>
@@ -15737,8 +17172,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>24</v>
       </c>
@@ -15760,8 +17198,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>24</v>
       </c>
@@ -15783,8 +17224,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>24</v>
       </c>
@@ -15806,8 +17250,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>24</v>
       </c>
@@ -15829,8 +17276,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>24</v>
       </c>
@@ -15852,8 +17302,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>24</v>
       </c>
@@ -15875,8 +17328,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>24</v>
       </c>
@@ -15898,8 +17354,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>24</v>
       </c>
@@ -15921,8 +17380,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>24</v>
       </c>
@@ -15944,8 +17406,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>24</v>
       </c>
@@ -15967,8 +17432,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>24</v>
       </c>
@@ -15990,8 +17458,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>24</v>
       </c>
@@ -16013,8 +17484,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>24</v>
       </c>
@@ -16036,8 +17510,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>24</v>
       </c>
@@ -16059,8 +17536,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>24</v>
       </c>
@@ -16082,8 +17562,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>24</v>
       </c>
@@ -16105,8 +17588,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>24</v>
       </c>
@@ -16128,8 +17614,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>24</v>
       </c>
@@ -16151,8 +17640,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>24</v>
       </c>
@@ -16174,8 +17666,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>24</v>
       </c>
@@ -16197,8 +17692,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>24</v>
       </c>
@@ -16220,8 +17718,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>24</v>
       </c>
@@ -16243,8 +17744,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>24</v>
       </c>
@@ -16266,8 +17770,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>24</v>
       </c>
@@ -16289,8 +17796,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>24</v>
       </c>
@@ -16312,8 +17822,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>24</v>
       </c>
@@ -16335,8 +17848,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>24</v>
       </c>
@@ -16358,8 +17874,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>24</v>
       </c>
@@ -16381,8 +17900,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>24</v>
       </c>
@@ -16404,8 +17926,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>24</v>
       </c>
@@ -16427,8 +17952,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>24</v>
       </c>
@@ -16450,8 +17978,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>24</v>
       </c>
@@ -16473,8 +18004,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>24</v>
       </c>
@@ -16496,8 +18030,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>24</v>
       </c>
@@ -16519,8 +18056,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>24</v>
       </c>
@@ -16542,8 +18082,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>24</v>
       </c>
@@ -16565,8 +18108,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>24</v>
       </c>
@@ -16588,8 +18134,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>24</v>
       </c>
@@ -16611,8 +18160,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>24</v>
       </c>
@@ -16634,8 +18186,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>24</v>
       </c>
@@ -16657,8 +18212,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>24</v>
       </c>
@@ -16680,8 +18238,11 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
         <v>24</v>
       </c>
@@ -16703,8 +18264,11 @@
         <f t="shared" ref="F515:F578" si="23">0.9*E515</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>24</v>
       </c>
@@ -16726,8 +18290,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>24</v>
       </c>
@@ -16749,8 +18316,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
         <v>24</v>
       </c>
@@ -16772,8 +18342,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>24</v>
       </c>
@@ -16795,8 +18368,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>24</v>
       </c>
@@ -16818,8 +18394,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>24</v>
       </c>
@@ -16841,8 +18420,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>24</v>
       </c>
@@ -16864,8 +18446,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>24</v>
       </c>
@@ -16887,8 +18472,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G523">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>24</v>
       </c>
@@ -16910,8 +18498,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>24</v>
       </c>
@@ -16933,8 +18524,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>24</v>
       </c>
@@ -16956,8 +18550,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>24</v>
       </c>
@@ -16979,8 +18576,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>24</v>
       </c>
@@ -17002,8 +18602,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>24</v>
       </c>
@@ -17025,8 +18628,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>24</v>
       </c>
@@ -17048,8 +18654,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>24</v>
       </c>
@@ -17071,8 +18680,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>24</v>
       </c>
@@ -17094,8 +18706,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>24</v>
       </c>
@@ -17117,8 +18732,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
         <v>24</v>
       </c>
@@ -17140,8 +18758,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>24</v>
       </c>
@@ -17163,8 +18784,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>24</v>
       </c>
@@ -17186,8 +18810,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>24</v>
       </c>
@@ -17209,8 +18836,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>24</v>
       </c>
@@ -17232,8 +18862,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>24</v>
       </c>
@@ -17255,8 +18888,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>24</v>
       </c>
@@ -17278,8 +18914,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>24</v>
       </c>
@@ -17301,8 +18940,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>24</v>
       </c>
@@ -17324,8 +18966,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>24</v>
       </c>
@@ -17347,8 +18992,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>24</v>
       </c>
@@ -17370,8 +19018,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>24</v>
       </c>
@@ -17393,8 +19044,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
         <v>24</v>
       </c>
@@ -17416,8 +19070,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>24</v>
       </c>
@@ -17439,8 +19096,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>24</v>
       </c>
@@ -17462,8 +19122,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>24</v>
       </c>
@@ -17485,8 +19148,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G549">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>24</v>
       </c>
@@ -17508,8 +19174,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>24</v>
       </c>
@@ -17531,8 +19200,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>24</v>
       </c>
@@ -17554,8 +19226,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>24</v>
       </c>
@@ -17577,8 +19252,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
         <v>24</v>
       </c>
@@ -17600,8 +19278,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>24</v>
       </c>
@@ -17623,8 +19304,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
         <v>24</v>
       </c>
@@ -17646,8 +19330,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>24</v>
       </c>
@@ -17669,8 +19356,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>24</v>
       </c>
@@ -17692,8 +19382,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>24</v>
       </c>
@@ -17715,8 +19408,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
         <v>24</v>
       </c>
@@ -17738,8 +19434,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>24</v>
       </c>
@@ -17761,8 +19460,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>24</v>
       </c>
@@ -17784,8 +19486,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>24</v>
       </c>
@@ -17807,8 +19512,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>24</v>
       </c>
@@ -17830,8 +19538,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>24</v>
       </c>
@@ -17853,8 +19564,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>24</v>
       </c>
@@ -17876,8 +19590,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>24</v>
       </c>
@@ -17899,8 +19616,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
         <v>24</v>
       </c>
@@ -17922,8 +19642,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>24</v>
       </c>
@@ -17945,8 +19668,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>24</v>
       </c>
@@ -17968,8 +19694,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>24</v>
       </c>
@@ -17991,8 +19720,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>24</v>
       </c>
@@ -18014,8 +19746,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>24</v>
       </c>
@@ -18037,8 +19772,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
         <v>24</v>
       </c>
@@ -18060,8 +19798,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>24</v>
       </c>
@@ -18083,8 +19824,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
         <v>24</v>
       </c>
@@ -18106,8 +19850,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
         <v>24</v>
       </c>
@@ -18129,8 +19876,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>24</v>
       </c>
@@ -18152,8 +19902,11 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>24</v>
       </c>
@@ -18175,8 +19928,11 @@
         <f t="shared" ref="F579:F580" si="26">0.9*E579</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>24</v>
       </c>
@@ -18198,16 +19954,20 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
+      <c r="G580">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E580"/>
+  <autoFilter ref="A1:E580" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18298,5 +20058,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/SCENARIOS.xlsx
+++ b/data/SCENARIOS.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geyerbisschoff\PythonProjects\Z-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EE41FC-87A3-4C24-A276-AF69E8392871}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED0FF7-98D4-4453-BC17-150A03736767}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40212" yWindow="-6528" windowWidth="40320" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40212" yWindow="-6528" windowWidth="40320" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="4" r:id="rId1"/>
-    <sheet name="CONSTANTS" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="SCENARIO_WEIGHTS" sheetId="5" r:id="rId2"/>
+    <sheet name="CONSTANTS" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$E$580</definedName>
@@ -25,7 +26,7 @@
     <definedName name="_QUATER">CONSTANTS!$B$2:$B$5</definedName>
     <definedName name="Date_Reporting">[1]Inputs!$D$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="29">
   <si>
     <t>SCENARIO</t>
   </si>
@@ -129,12 +130,15 @@
   <si>
     <t>INDEX</t>
   </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +169,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -231,11 +242,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,10 +264,14 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5067,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G580"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19967,6 +19983,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C987694D-C94C-4105-A6ED-DDE0EF8B3EDF}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
